--- a/dinero/Dinero - Avaliação.xlsx
+++ b/dinero/Dinero - Avaliação.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="90">
   <si>
     <t>l1-dsize</t>
   </si>
@@ -41,13 +42,314 @@
   </si>
   <si>
     <t xml:space="preserve">l1-icache demand miss rate </t>
+  </si>
+  <si>
+    <t>./dineroIV-tar</t>
+  </si>
+  <si>
+    <t>-l1-isize</t>
+  </si>
+  <si>
+    <t>-l1-dsize</t>
+  </si>
+  <si>
+    <t>-l1-ibsize</t>
+  </si>
+  <si>
+    <t>-l1-dbsize</t>
+  </si>
+  <si>
+    <t>-l1-iassoc</t>
+  </si>
+  <si>
+    <t>-l1-dassoc</t>
+  </si>
+  <si>
+    <t>-l2-usize</t>
+  </si>
+  <si>
+    <t>-l2-ubsize</t>
+  </si>
+  <si>
+    <t>-l2-uassoc</t>
+  </si>
+  <si>
+    <t>-l3-usize</t>
+  </si>
+  <si>
+    <t>-l3-ubsize</t>
+  </si>
+  <si>
+    <t>-l3-uassoc</t>
+  </si>
+  <si>
+    <t>Comando de execução do programa</t>
+  </si>
+  <si>
+    <t>Arquivo com o resultado da execução</t>
+  </si>
+  <si>
+    <t>Comando para terminal</t>
+  </si>
+  <si>
+    <t>Miss rate l1 instruc</t>
+  </si>
+  <si>
+    <t>Miss rate l1 dados</t>
+  </si>
+  <si>
+    <t>Miss rate l2 unified</t>
+  </si>
+  <si>
+    <t>Miss rate l3 unified</t>
+  </si>
+  <si>
+    <t>time real</t>
+  </si>
+  <si>
+    <t>time user</t>
+  </si>
+  <si>
+    <t>time sys</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-informat p  &lt;  </t>
+  </si>
+  <si>
+    <t>radix.din</t>
+  </si>
+  <si>
+    <t>&gt; results/dinero-result-</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1m11.382s
+1m11.210s
+0m0.162s</t>
+  </si>
+  <si>
+    <t>real    1m21.089s
+user    1m20.859s
+sys     0m0.231s</t>
+  </si>
+  <si>
+    <t>real    1m14.575s
+user    1m14.334s
+sys     0m0.241s</t>
+  </si>
+  <si>
+    <t>real    1m11.614s
+user    1m11.469s
+sys     0m0.141s</t>
+  </si>
+  <si>
+    <t>real    1m15.266s
+user    1m15.115s
+sys     0m0.151s</t>
+  </si>
+  <si>
+    <t>real    0m51.156s
+user    0m50.934s
+sys     0m0.191s</t>
+  </si>
+  <si>
+    <t>real    0m58.760s
+user    0m58.500s
+sys     0m0.261s</t>
+  </si>
+  <si>
+    <t>real    1m7.901s
+user    1m7.740s
+sys     0m0.161s</t>
+  </si>
+  <si>
+    <t>real    1m13.622s
+user    1m13.443s
+sys     0m0.161s</t>
+  </si>
+  <si>
+    <t>real    1m40.439s
+user    1m40.175s
+sys     0m0.251s</t>
+  </si>
+  <si>
+    <t>64k</t>
+  </si>
+  <si>
+    <t>real    1m22.905s
+user    1m22.711s
+sys     0m0.190s</t>
+  </si>
+  <si>
+    <t>128k</t>
+  </si>
+  <si>
+    <t>real    1m40.894s
+user    1m40.664s
+sys     0m0.230s</t>
+  </si>
+  <si>
+    <t>256k</t>
+  </si>
+  <si>
+    <t>real    2m1.191s
+user    2m0.821s
+sys     0m0.350s</t>
+  </si>
+  <si>
+    <t>512k</t>
+  </si>
+  <si>
+    <t>real    2m41.410s
+user    2m40.928s
+sys     0m0.471s</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>real    2m35.756s
+user    2m35.308s
+sys     0m0.441s</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>real    2m31.858s
+user    2m31.333s
+sys     0m0.481s</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>real    2m42.226s
+user    2m41.678s
+sys     0m0.511s</t>
+  </si>
+  <si>
+    <t>real    5m32.898s
+user    5m32.282s
+sys     0m0.581s</t>
+  </si>
+  <si>
+    <t>real    5m37.221s
+user    5m36.784s
+sys     0m0.421s</t>
+  </si>
+  <si>
+    <t>real    0m47.152s
+user    0m46.946s
+sys     0m0.191s</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>real    0m23.764s
+user    0m23.613s
+sys     0m0.150s</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>real    0m21.691s
+user    0m21.598s
+sys     0m0.090s</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>real    0m21.203s
+user    0m21.092s
+sys     0m0.111s</t>
+  </si>
+  <si>
+    <t>4096</t>
+  </si>
+  <si>
+    <t>real    0m20.509s
+user    0m20.408s
+sys     0m0.100s</t>
+  </si>
+  <si>
+    <t>8192</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>dineroIV-tar: level 2 ucache size &lt; blocksize * associativity</t>
+  </si>
+  <si>
+    <t>real    0m20.867s
+user    0m20.757s
+sys     0m0.110s</t>
+  </si>
+  <si>
+    <t>16384</t>
+  </si>
+  <si>
+    <t>real    0m28.737s
+user    0m28.573s
+sys     0m0.160s</t>
+  </si>
+  <si>
+    <t>32768</t>
+  </si>
+  <si>
+    <t>real    0m20.071s
+user    0m20.020s
+sys     0m0.050s</t>
+  </si>
+  <si>
+    <t>dineroIV-tar: level 3 ucache sub-block size must be &lt;= 32768</t>
+  </si>
+  <si>
+    <t>real    0m22.681s
+user    0m22.520s
+sys     0m0.160s</t>
+  </si>
+  <si>
+    <t>real    0m20.119s
+user    0m20.027s
+sys     0m0.080s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,13 +357,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,10 +427,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,7 +764,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -372,11 +772,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="137628960"/>
-        <c:axId val="137629504"/>
+        <c:axId val="1239520272"/>
+        <c:axId val="1129839872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137628960"/>
+        <c:axId val="1239520272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137629504"/>
+        <c:crossAx val="1129839872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137629504"/>
+        <c:axId val="1129839872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137628960"/>
+        <c:crossAx val="1239520272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1217,16 +1617,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1535,10 +1935,5082 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AK52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="18" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="18" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="18" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="18" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="18" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="18" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="18" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="18" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="18" customWidth="1"/>
+    <col min="27" max="27" width="6" style="18" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="9.140625" style="18" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="18" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="27.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="34" max="37" width="9.140625" style="18"/>
+    <col min="38" max="38" width="17.7109375" style="18" customWidth="1"/>
+    <col min="39" max="39" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="8" t="str">
+        <f>CONCATENATE(B2,"  ",C2,"  ",D2,"  ",E2,"  ",F2,"  ",G2,"  ",H2,"  ",I2,"  ",J2,"  ",K2,"  ",L2,"  ",M2,"  ",N2,"  ",O2,"  ",P2,"  ",Q2,"  ",R2,"  ",S2,"  ",T2,"  ",U2,"  ",V2,"  ",W2,"  ",X2,"  ",Y2,"  ",Z2,"  ",AA2,"  ",AB2,"  ",AC2,AB2,"-",A2,AD2)</f>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  2  -l1-dbsize  2                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF2" s="9" t="str">
+        <f>CONCATENATE("dinero-result-",AB2,"-",A2,AD2)</f>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG2" s="9" t="str">
+        <f>CONCATENATE(B2,"  ",C2,"  ",D2,"  ",E2,"  ",F2,"  ",G2,"  ",H2,"  ",I2,"  ",J2,"  ",K2,"  ",L2,"  ",M2,"  ",N2,"  ",O2,"  ",P2,"  ",Q2,"  ",R2,"  ",S2,"  ",T2,"  ",U2,"  ",V2,"  ",W2,"  ",X2,"  ",Y2,"  ",Z2,"  ",AA2,"  ",AB2)</f>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  2  -l1-dbsize  2                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="8" t="str">
+        <f>CONCATENATE(B3,"  ",C3,"  ",D3,"  ",E3,"  ",F3,"  ",G3,"  ",H3,"  ",I3,"  ",J3,"  ",K3,"  ",L3,"  ",M3,"  ",N3,"  ",O3,"  ",P3,"  ",Q3,"  ",R3,"  ",S3,"  ",T3,"  ",U3,"  ",V3,"  ",W3,"  ",X3,"  ",Y3,"  ",Z3,"  ",AA3,"  ",AB3,"  ",AC3,AB3,"-",A3,AD3)</f>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  4  -l1-dbsize  4                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF3" s="9" t="str">
+        <f>CONCATENATE("dinero-result-",AB3,"-",A3,AD3)</f>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG3" s="9" t="str">
+        <f>CONCATENATE(B3,"  ",C3,"  ",D3,"  ",E3,"  ",F3,"  ",G3,"  ",H3,"  ",I3,"  ",J3,"  ",K3,"  ",L3,"  ",M3,"  ",N3,"  ",O3,"  ",P3,"  ",Q3,"  ",R3,"  ",S3,"  ",T3,"  ",U3,"  ",V3,"  ",W3,"  ",X3,"  ",Y3,"  ",Z3,"  ",AA3,"  ",AB3)</f>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  4  -l1-dbsize  4                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE4" s="8" t="str">
+        <f t="shared" ref="AE4:AE17" si="0">CONCATENATE(B4,"  ",C4,"  ",D4,"  ",E4,"  ",F4,"  ",G4,"  ",H4,"  ",I4,"  ",J4,"  ",K4,"  ",L4,"  ",M4,"  ",N4,"  ",O4,"  ",P4,"  ",Q4,"  ",R4,"  ",S4,"  ",T4,"  ",U4,"  ",V4,"  ",W4,"  ",X4,"  ",Y4,"  ",Z4,"  ",AA4,"  ",AB4,"  ",AC4,AB4,"-",A4,AD4)</f>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  8  -l1-dbsize  8                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF4" s="9" t="str">
+        <f t="shared" ref="AF4:AF17" si="1">CONCATENATE("dinero-result-",AB4,"-",A4,AD4)</f>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG4" s="9" t="str">
+        <f t="shared" ref="AG4:AG17" si="2">CONCATENATE(B4,"  ",C4,"  ",D4,"  ",E4,"  ",F4,"  ",G4,"  ",H4,"  ",I4,"  ",J4,"  ",K4,"  ",L4,"  ",M4,"  ",N4,"  ",O4,"  ",P4,"  ",Q4,"  ",R4,"  ",S4,"  ",T4,"  ",U4,"  ",V4,"  ",W4,"  ",X4,"  ",Y4,"  ",Z4,"  ",AA4,"  ",AB4)</f>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  8  -l1-dbsize  8                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  16  -l1-dbsize  16                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG5" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  16  -l1-dbsize  16                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>0.56540000000000001</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  32  -l1-dbsize  32                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG6" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  32  -l1-dbsize  32                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>0.1111</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  1k  -l1-dsize  1k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>0.1111</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  2k  -l1-dsize  2k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  2k  -l1-dsize  2k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>0.19259999999999999</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  4k  -l1-dsize  4k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  4k  -l1-dsize  4k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>0.1822</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  8k  -l1-dsize  8k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  8k  -l1-dsize  8k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  16k  -l1-dsize  16k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  16k  -l1-dsize  16k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2                                  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  2  -l1-dassoc  2                          -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  2  -l1-dassoc  2                          -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  4  -l1-dassoc  4                          -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  4  -l1-dassoc  4                          -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  8  -l1-dassoc  8                          -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG15" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  8  -l1-dassoc  8                          -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="AI15" s="9">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  16  -l1-dassoc  16                          -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG16" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  16  -l1-dassoc  16                          -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="AJ16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK16" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32                          -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32                          -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK17" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="14"/>
+    </row>
+    <row r="19" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE19" s="8" t="str">
+        <f t="shared" ref="AE19:AE32" si="3">CONCATENATE(B19,"  ",C19,"  ",D19,"  ",E19,"  ",F19,"  ",G19,"  ",H19,"  ",I19,"  ",J19,"  ",K19,"  ",L19,"  ",M19,"  ",N19,"  ",O19,"  ",P19,"  ",Q19,"  ",R19,"  ",S19,"  ",T19,"  ",U19,"  ",V19,"  ",W19,"  ",X19,"  ",Y19,"  ",Z19,"  ",AA19,"  ",AB19,"  ",AC19,AB19,"-",A19,AD19)</f>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  1k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF19" s="9" t="str">
+        <f t="shared" ref="AF19:AF32" si="4">CONCATENATE("dinero-result-",AB19,"-",A19,AD19)</f>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG19" s="9" t="str">
+        <f t="shared" ref="AG19:AG32" si="5">CONCATENATE(B19,"  ",C19,"  ",D19,"  ",E19,"  ",F19,"  ",G19,"  ",H19,"  ",I19,"  ",J19,"  ",K19,"  ",L19,"  ",M19,"  ",N19,"  ",O19,"  ",P19,"  ",Q19,"  ",R19,"  ",S19,"  ",T19,"  ",U19,"  ",V19,"  ",W19,"  ",X19,"  ",Y19,"  ",Z19,"  ",AA19,"  ",AB19)</f>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  1k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ19" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="AK19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL19" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE20" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  2k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF20" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG20" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  2k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ20" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="AK20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL20" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE21" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  4k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF21" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG21" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  4k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ21" s="9">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL21" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE22" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  8k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF22" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG22" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  8k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ22" s="9">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="AK22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL22" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE23" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  16k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG23" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  16k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ23" s="9">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="AK23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL23" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE24" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  32k  -l2-ubsize  2  -l2-uassoc  2              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF24" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  32k  -l2-ubsize  2  -l2-uassoc  2              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ24" s="9">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE25" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  32k  -l2-ubsize  2  -l2-uassoc  4              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF25" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG25" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  32k  -l2-ubsize  2  -l2-uassoc  4              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ25" s="9">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="AK25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL25" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE26" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  32k  -l2-ubsize  2  -l2-uassoc  8              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF26" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG26" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  32k  -l2-ubsize  2  -l2-uassoc  8              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ26" s="9">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL26" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE27" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  32k  -l2-ubsize  2  -l2-uassoc  16              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF27" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG27" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  32k  -l2-ubsize  2  -l2-uassoc  16              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ27" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL27" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE28" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  32k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF28" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG28" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  32k  -l2-ubsize  2  -l2-uassoc  32              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ28" s="9">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL28" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE29" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  64k  -l2-ubsize  2  -l2-uassoc  16              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG29" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  64k  -l2-ubsize  2  -l2-uassoc  16              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ29" s="9">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL29" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE30" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  128k  -l2-ubsize  2  -l2-uassoc  16              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF30" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG30" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  128k  -l2-ubsize  2  -l2-uassoc  16              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ30" s="9">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="AK30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL30" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE31" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  256k  -l2-ubsize  2  -l2-uassoc  16              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF31" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG31" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  256k  -l2-ubsize  2  -l2-uassoc  16              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ31" s="9">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="AK31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL31" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE32" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  16              -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF32" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG32" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  16              -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="AK32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL32" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE34" s="8" t="str">
+        <f t="shared" ref="AE34:AE38" si="6">CONCATENATE(B34,"  ",C34,"  ",D34,"  ",E34,"  ",F34,"  ",G34,"  ",H34,"  ",I34,"  ",J34,"  ",K34,"  ",L34,"  ",M34,"  ",N34,"  ",O34,"  ",P34,"  ",Q34,"  ",R34,"  ",S34,"  ",T34,"  ",U34,"  ",V34,"  ",W34,"  ",X34,"  ",Y34,"  ",Z34,"  ",AA34,"  ",AB34,"  ",AC34,AB34,"-",A34,AD34)</f>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  16  -l3-usize  1m  -l3-ubsize  2      -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF34" s="9" t="str">
+        <f t="shared" ref="AF34:AF38" si="7">CONCATENATE("dinero-result-",AB34,"-",A34,AD34)</f>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG34" s="9" t="str">
+        <f t="shared" ref="AG34:AG38" si="8">CONCATENATE(B34,"  ",C34,"  ",D34,"  ",E34,"  ",F34,"  ",G34,"  ",H34,"  ",I34,"  ",J34,"  ",K34,"  ",L34,"  ",M34,"  ",N34,"  ",O34,"  ",P34,"  ",Q34,"  ",R34,"  ",S34,"  ",T34,"  ",U34,"  ",V34,"  ",W34,"  ",X34,"  ",Y34,"  ",Z34,"  ",AA34,"  ",AB34)</f>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  16  -l3-usize  1m  -l3-ubsize  2      -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH34" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI34" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ34" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="AK34" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="AL34" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE35" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  16  -l3-usize  2m  -l3-ubsize  2      -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF35" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG35" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  16  -l3-usize  2m  -l3-ubsize  2      -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH35" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI35" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="AK35" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="AL35" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE36" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  16  -l3-usize  4m  -l3-ubsize  2      -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF36" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG36" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  16  -l3-usize  4m  -l3-ubsize  2      -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI36" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ36" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="AK36" s="5">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="AL36" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE37" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  16  -l3-usize  4m  -l3-ubsize  2  -l3-uassoc  16  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF37" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG37" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  16  -l3-usize  4m  -l3-ubsize  2  -l3-uassoc  16  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI37" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="AK37" s="5">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="AL37" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE38" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  32  -l3-usize  4m  -l3-ubsize  2  -l3-uassoc  32  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF38" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG38" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  2  -l2-uassoc  32  -l3-usize  4m  -l3-ubsize  2  -l3-uassoc  32  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH38" s="17">
+        <v>0.1111</v>
+      </c>
+      <c r="AI38" s="17">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ38" s="17">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="AK38" s="17">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="AL38" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE40" s="8" t="str">
+        <f t="shared" ref="AE40:AE49" si="9">CONCATENATE(B40,"  ",C40,"  ",D40,"  ",E40,"  ",F40,"  ",G40,"  ",H40,"  ",I40,"  ",J40,"  ",K40,"  ",L40,"  ",M40,"  ",N40,"  ",O40,"  ",P40,"  ",Q40,"  ",R40,"  ",S40,"  ",T40,"  ",U40,"  ",V40,"  ",W40,"  ",X40,"  ",Y40,"  ",Z40,"  ",AA40,"  ",AB40,"  ",AC40,AB40,"-",A40,AD40)</f>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  32  -l2-uassoc  16  -l3-usize  4m  -l3-ubsize  32  -l3-uassoc  16  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF40" s="9" t="str">
+        <f t="shared" ref="AF40:AF49" si="10">CONCATENATE("dinero-result-",AB40,"-",A40,AD40)</f>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG40" s="9" t="str">
+        <f t="shared" ref="AG40:AG49" si="11">CONCATENATE(B40,"  ",C40,"  ",D40,"  ",E40,"  ",F40,"  ",G40,"  ",H40,"  ",I40,"  ",J40,"  ",K40,"  ",L40,"  ",M40,"  ",N40,"  ",O40,"  ",P40,"  ",Q40,"  ",R40,"  ",S40,"  ",T40,"  ",U40,"  ",V40,"  ",W40,"  ",X40,"  ",Y40,"  ",Z40,"  ",AA40,"  ",AB40)</f>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  32  -l2-uassoc  16  -l3-usize  4m  -l3-ubsize  32  -l3-uassoc  16  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH40" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI40" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ40" s="9">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="AK40" s="9">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="AL40" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE41" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  256  -l2-uassoc  16  -l3-usize  4m  -l3-ubsize  256  -l3-uassoc  16  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF41" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG41" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  256  -l2-uassoc  16  -l3-usize  4m  -l3-ubsize  256  -l3-uassoc  16  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH41" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI41" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ41" s="9">
+        <v>0.1222</v>
+      </c>
+      <c r="AK41" s="9">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="AL41" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE42" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  512  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  512  -l3-uassoc  128  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF42" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG42" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  512  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  512  -l3-uassoc  128  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH42" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI42" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ42" s="9">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="AK42" s="9">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AL42" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE43" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  1024  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  1024  -l3-uassoc  128  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF43" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG43" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  1024  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  1024  -l3-uassoc  128  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH43" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI43" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ43" s="9">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="AK43" s="9">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="AL43" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE44" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  4096  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  4096  -l3-uassoc  128  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF44" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG44" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  4096  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  4096  -l3-uassoc  128  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH44" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI44" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ44" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AK44" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="AL44" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE45" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  8192  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  8192  -l3-uassoc  128  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF45" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG45" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  8192  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  8192  -l3-uassoc  128  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH45" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI45" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL45" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE46" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  4096  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  8192  -l3-uassoc  128  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF46" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG46" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  4096  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  8192  -l3-uassoc  128  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH46" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI46" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ46" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AK46" s="9">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="AL46" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE47" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  4096  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  16384  -l3-uassoc  128  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF47" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG47" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  4096  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  16384  -l3-uassoc  128  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH47" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI47" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ47" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AK47" s="9">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="AL47" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC48" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE48" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  4096  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  32768  -l3-uassoc  128  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF48" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG48" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  4096  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  32768  -l3-uassoc  128  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH48" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI48" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ48" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AK48" s="9">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="AL48" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z49" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE49" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  4096  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  64k  -l3-uassoc  128  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF49" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG49" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  4096  -l2-uassoc  128  -l3-usize  4m  -l3-ubsize  64k  -l3-uassoc  128  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH49" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI49" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ49" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AK49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL49" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE51" s="8" t="str">
+        <f t="shared" ref="AE51:AE52" si="12">CONCATENATE(B51,"  ",C51,"  ",D51,"  ",E51,"  ",F51,"  ",G51,"  ",H51,"  ",I51,"  ",J51,"  ",K51,"  ",L51,"  ",M51,"  ",N51,"  ",O51,"  ",P51,"  ",Q51,"  ",R51,"  ",S51,"  ",T51,"  ",U51,"  ",V51,"  ",W51,"  ",X51,"  ",Y51,"  ",Z51,"  ",AA51,"  ",AB51,"  ",AC51,AB51,"-",A51,AD51)</f>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  8k  -l2-uassoc  32  -l3-usize  4m  -l3-ubsize  32k  -l3-uassoc  32  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF51" s="9" t="str">
+        <f t="shared" ref="AF51:AF52" si="13">CONCATENATE("dinero-result-",AB51,"-",A51,AD51)</f>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG51" s="9" t="str">
+        <f t="shared" ref="AG51:AG52" si="14">CONCATENATE(B51,"  ",C51,"  ",D51,"  ",E51,"  ",F51,"  ",G51,"  ",H51,"  ",I51,"  ",J51,"  ",K51,"  ",L51,"  ",M51,"  ",N51,"  ",O51,"  ",P51,"  ",Q51,"  ",R51,"  ",S51,"  ",T51,"  ",U51,"  ",V51,"  ",W51,"  ",X51,"  ",Y51,"  ",Z51,"  ",AA51,"  ",AB51)</f>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  8k  -l2-uassoc  32  -l3-usize  4m  -l3-ubsize  32k  -l3-uassoc  32  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH51" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="AI51" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ51" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="AK51" s="9">
+        <v>0.24610000000000001</v>
+      </c>
+      <c r="AL51" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE52" s="8" t="str">
+        <f t="shared" si="12"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  8k  -l2-uassoc  32  -l3-usize  4m  -l3-ubsize  32k  -l3-uassoc  128  -informat p  &lt;    radix.din  &gt; results/dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AF52" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>dinero-result-radix.din-001.txt</v>
+      </c>
+      <c r="AG52" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>./dineroIV-tar  -l1-isize  32k  -l1-dsize  32k  -l1-ibsize  32  -l1-dbsize  2  -l1-iassoc  32  -l1-dassoc  32  -l2-usize  512k  -l2-ubsize  8k  -l2-uassoc  32  -l3-usize  4m  -l3-ubsize  32k  -l3-uassoc  128  -informat p  &lt;    radix.din</v>
+      </c>
+      <c r="AH52" s="19">
+        <v>0.1111</v>
+      </c>
+      <c r="AI52" s="19">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AJ52" s="19">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="AK52" s="19">
+        <v>0.24610000000000001</v>
+      </c>
+      <c r="AL52" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dinero/Dinero - Avaliação.xlsx
+++ b/dinero/Dinero - Avaliação.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan2" sheetId="2" r:id="rId1"/>
     <sheet name="Plan1" sheetId="1" r:id="rId2"/>
+    <sheet name="dados" sheetId="3" r:id="rId3"/>
+    <sheet name="gráfico-L1" sheetId="4" r:id="rId4"/>
+    <sheet name="gráfico-L2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="93">
   <si>
     <t>l1-dsize</t>
   </si>
@@ -344,6 +347,15 @@
 user    0m20.027s
 sys     0m0.080s</t>
   </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Miss rate L1 instrução</t>
+  </si>
+  <si>
+    <t>Miss rate L1 dados</t>
+  </si>
 </sst>
 </file>
 
@@ -772,11 +784,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1239520272"/>
-        <c:axId val="1129839872"/>
+        <c:axId val="-1112644880"/>
+        <c:axId val="-1112649232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1239520272"/>
+        <c:axId val="-1112644880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1129839872"/>
+        <c:crossAx val="-1112649232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -883,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1129839872"/>
+        <c:axId val="-1112649232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +1002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1239520272"/>
+        <c:crossAx val="-1112644880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1071,7 +1083,1184 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Taxa de perda na L1 cache nas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> configurações testadas</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gráfico-L1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Miss rate L1 instrução</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gráfico-L1'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gráfico-L1'!$H$2:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gráfico-L1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Miss rate L1 dados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gráfico-L1'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gráfico-L1'!$I$2:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.37490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2499999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-815519504"/>
+        <c:axId val="-815518416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-815519504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número da configuração testada</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-815518416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-815518416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taxa</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> de perda na cache</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-815519504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gráfico-L2'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gráfico-L2'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.99990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90369999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1222</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-906606432"/>
+        <c:axId val="-808623952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-906606432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-808623952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-808623952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-906606432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1613,6 +2802,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1631,6 +3839,76 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1937,8 +4215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AK52"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7092,4 +9370,3043 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="18"/>
+    <col min="15" max="16" width="10.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="15.85546875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="9">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.56540000000000001</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10">
+        <v>0.1111</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12">
+        <v>0.1111</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.19259999999999999</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.1822</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="N13" s="9">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="N14" s="9">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="N15" s="9">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="N16" s="9">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N17" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N20" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N21" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N22" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N23" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N24" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N25" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N26" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N27" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N28" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N29" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N30" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N31" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N32" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N34" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N35" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N36" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N37" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="17">
+        <v>0.1111</v>
+      </c>
+      <c r="N38" s="17">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O38" s="17">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="P38" s="17">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N40" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0.97760000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N41" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0.1222</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0.84540000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N42" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O42" s="9">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N43" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O43" s="9">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N44" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O44" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N45" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N46" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O46" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P46" s="9">
+        <v>0.49980000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N47" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O47" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0.25009999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N48" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O48" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P48" s="9">
+        <v>0.12529999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N49" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O49" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0.1111</v>
+      </c>
+      <c r="N51" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O51" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="P51" s="9">
+        <v>0.24610000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M52" s="19">
+        <v>0.1111</v>
+      </c>
+      <c r="N52" s="19">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O52" s="19">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="P52" s="19">
+        <v>0.24610000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="8" max="9" width="13" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="9">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.37490000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.55479999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.56540000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.62580000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.37490000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.19259999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.1822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.13669999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.13669999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.13420000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I13" s="9">
+        <v>8.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I14" s="9">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.1111</v>
+      </c>
+      <c r="I17" s="9">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="4.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="18"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.99270000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.90369999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.1222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>38</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="9">
+        <v>5.5899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>39</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>40</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>